--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bdnf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3771826666666667</v>
+        <v>0.03885866666666667</v>
       </c>
       <c r="H2">
-        <v>1.131548</v>
+        <v>0.116576</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,16 +564,16 @@
         <v>0.748888867113614</v>
       </c>
       <c r="Q2">
-        <v>1.268369000692444</v>
+        <v>0.1306717740871111</v>
       </c>
       <c r="R2">
-        <v>11.415321006232</v>
+        <v>1.176045966784</v>
       </c>
       <c r="S2">
-        <v>0.7488888671136141</v>
+        <v>0.06994695124253414</v>
       </c>
       <c r="T2">
-        <v>0.748888867113614</v>
+        <v>0.06994695124253412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3771826666666667</v>
+        <v>0.03885866666666667</v>
       </c>
       <c r="H3">
-        <v>1.131548</v>
+        <v>0.116576</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.09340097618505853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +620,146 @@
         <v>3.382702</v>
       </c>
       <c r="O3">
-        <v>0.2511111328863859</v>
+        <v>0.251111132886386</v>
       </c>
       <c r="P3">
         <v>0.2511111328863859</v>
       </c>
       <c r="Q3">
-        <v>0.4252988536328888</v>
+        <v>0.04381576315022222</v>
       </c>
       <c r="R3">
+        <v>0.394341868352</v>
+      </c>
+      <c r="S3">
+        <v>0.02345402494252441</v>
+      </c>
+      <c r="T3">
+        <v>0.0234540249425244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.3771826666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.131548</v>
+      </c>
+      <c r="I4">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="J4">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3.362744666666666</v>
+      </c>
+      <c r="N4">
+        <v>10.088234</v>
+      </c>
+      <c r="O4">
+        <v>0.7488888671136141</v>
+      </c>
+      <c r="P4">
+        <v>0.748888867113614</v>
+      </c>
+      <c r="Q4">
+        <v>1.268369000692444</v>
+      </c>
+      <c r="R4">
+        <v>11.415321006232</v>
+      </c>
+      <c r="S4">
+        <v>0.67894191587108</v>
+      </c>
+      <c r="T4">
+        <v>0.6789419158710799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3771826666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.131548</v>
+      </c>
+      <c r="I5">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="J5">
+        <v>0.9065990238149415</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.127567333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.382702</v>
+      </c>
+      <c r="O5">
+        <v>0.251111132886386</v>
+      </c>
+      <c r="P5">
+        <v>0.2511111328863859</v>
+      </c>
+      <c r="Q5">
+        <v>0.4252988536328889</v>
+      </c>
+      <c r="R5">
         <v>3.827689682696</v>
       </c>
-      <c r="S3">
-        <v>0.2511111328863859</v>
-      </c>
-      <c r="T3">
-        <v>0.2511111328863859</v>
+      <c r="S5">
+        <v>0.2276571079438616</v>
+      </c>
+      <c r="T5">
+        <v>0.2276571079438615</v>
       </c>
     </row>
   </sheetData>
